--- a/samadhan_Procurement_Farmer/testData/SamadhanTestData.xlsx
+++ b/samadhan_Procurement_Farmer/testData/SamadhanTestData.xlsx
@@ -3,15 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{EEDEE9C4-DFBE-4A2E-AC27-0F62E0605BAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\testing.engineer\git\procurement_samadhan\final\samadhan_Procurement_Farmer\testData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C91E3F-96B9-40DD-B9F4-CEEBDAD96410}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23640" windowHeight="11970" xr2:uid="{2CC6217F-CAE6-4F50-B036-4AB30A51CEFD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23640" windowHeight="12930" xr2:uid="{2CC6217F-CAE6-4F50-B036-4AB30A51CEFD}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Vehicle Number</t>
   </si>
@@ -39,6 +43,45 @@
   </si>
   <si>
     <t>9354029690</t>
+  </si>
+  <si>
+    <t>FFB Count</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>firstDigit</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>secondDigit</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>thirdDigit</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>fourthDigit</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -394,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219784AB-C0A5-4FAE-BAB9-D260642AA9B0}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,21 +474,68 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100237818F2798A2C48BDC4C5150A01F876" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18491cb9e51c5fe50e5ef2e226008270">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f8021fd8-9dec-452d-b422-3220fa843c88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1e2b084cb031fe6dfda0f1c80b71eb1f" ns3:_="">
     <xsd:import namespace="f8021fd8-9dec-452d-b422-3220fa843c88"/>
@@ -633,7 +723,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_activity xmlns="f8021fd8-9dec-452d-b422-3220fa843c88" xsi:nil="true"/>
@@ -641,15 +731,16 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773AC705-8959-497F-B233-B518F236F1CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C540CDA6-FF5F-4710-BDA1-D0E22A382949}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -667,7 +758,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5982256F-B020-44BC-9EA5-A95E177BC1B7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -681,4 +772,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773AC705-8959-497F-B233-B518F236F1CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/samadhan_Procurement_Farmer/testData/SamadhanTestData.xlsx
+++ b/samadhan_Procurement_Farmer/testData/SamadhanTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\testing.engineer\git\procurement_samadhan\final\samadhan_Procurement_Farmer\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C91E3F-96B9-40DD-B9F4-CEEBDAD96410}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8D0F73-7531-45A0-AD39-A58DBECF0F6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23640" windowHeight="12930" xr2:uid="{2CC6217F-CAE6-4F50-B036-4AB30A51CEFD}"/>
   </bookViews>
@@ -536,6 +536,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f8021fd8-9dec-452d-b422-3220fa843c88" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100237818F2798A2C48BDC4C5150A01F876" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18491cb9e51c5fe50e5ef2e226008270">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f8021fd8-9dec-452d-b422-3220fa843c88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1e2b084cb031fe6dfda0f1c80b71eb1f" ns3:_="">
     <xsd:import namespace="f8021fd8-9dec-452d-b422-3220fa843c88"/>
@@ -723,24 +740,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f8021fd8-9dec-452d-b422-3220fa843c88" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773AC705-8959-497F-B233-B518F236F1CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5982256F-B020-44BC-9EA5-A95E177BC1B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f8021fd8-9dec-452d-b422-3220fa843c88"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C540CDA6-FF5F-4710-BDA1-D0E22A382949}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -756,28 +780,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5982256F-B020-44BC-9EA5-A95E177BC1B7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f8021fd8-9dec-452d-b422-3220fa843c88"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773AC705-8959-497F-B233-B518F236F1CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>